--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results.csv/E/Angle/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results.csv/E/Angle/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Simulator_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results.csv\E\Angle\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9FB063-4E3D-4391-9CF5-68FE1E39DB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE1350D-233B-41BA-BC5A-A4E4A436F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9413" xr2:uid="{B07FB572-9440-48D0-8013-DE2D7A4C17F9}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9413" xr2:uid="{BF6AC708-12E6-4B04-B7AF-EDC2DD870DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BB0F3F-CB59-4D22-BF6D-33E385036733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67E427F-E8C5-4EA5-944D-E1A9C0A3C5AC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
